--- a/Э. 3.2/Ti.xlsx
+++ b/Э. 3.2/Ti.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Ti" sheetId="1" r:id="rId2"/>
+    <sheet name="FitLinearCurve1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="39" uniqueCount="20">
   <si>
     <t>Hz</t>
   </si>
@@ -24,13 +25,55 @@
     <t>dBV</t>
   </si>
   <si>
+    <t>deg</t>
+  </si>
+  <si>
     <t>rad</t>
   </si>
   <si>
     <t>tg</t>
   </si>
   <si>
+    <t>Independent Variable</t>
+  </si>
+  <si>
+    <t>Linear Fit of Ti F"tg"</t>
+  </si>
+  <si>
+    <t>Regular Residual of Ti F"tg"</t>
+  </si>
+  <si>
+    <t>Fitted Y</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
+  </si>
+  <si>
+    <t>Reference X</t>
+  </si>
+  <si>
+    <t>Reference Line</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>mu = -0.000000</t>
+  </si>
+  <si>
+    <t>sigma = 0.006163</t>
+  </si>
+  <si>
+    <t>Fitted Curves Plot</t>
+  </si>
+  <si>
+    <t>Histogram of the Residual Plot</t>
+  </si>
+  <si>
+    <t>Residual vs. Predicted Values Plot</t>
+  </si>
+  <si>
+    <t>Normal Probability Plot of Residuals</t>
   </si>
 </sst>
 </file>
@@ -74,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -99,22 +142,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="C2">
-        <v>-39.235</v>
+        <v>-37.614</v>
+      </c>
+      <c r="D2">
+        <v>23.2</v>
+      </c>
+      <c r="E2">
+        <v>0.404916386462684</v>
+      </c>
+      <c r="F2">
+        <v>0.428600547456001</v>
       </c>
     </row>
     <row r="3">
@@ -125,7 +171,16 @@
         <v>0.008</v>
       </c>
       <c r="C3">
-        <v>-41.65</v>
+        <v>-41.95</v>
+      </c>
+      <c r="D3">
+        <v>110.4</v>
+      </c>
+      <c r="E3">
+        <v>1.92684349420174</v>
+      </c>
+      <c r="F3">
+        <v>-2.68891896723594</v>
       </c>
     </row>
     <row r="4">
@@ -136,7 +191,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C4">
-        <v>-40.9</v>
+        <v>-41.051</v>
+      </c>
+      <c r="D4">
+        <v>134.4</v>
+      </c>
+      <c r="E4">
+        <v>2.34572251468038</v>
+      </c>
+      <c r="F4">
+        <v>-1.0211663785451</v>
       </c>
     </row>
     <row r="5">
@@ -147,7 +211,16 @@
         <v>0.008</v>
       </c>
       <c r="C5">
-        <v>-41.917</v>
+        <v>-42.196</v>
+      </c>
+      <c r="D5">
+        <v>133.4</v>
+      </c>
+      <c r="E5">
+        <v>2.32826922216044</v>
+      </c>
+      <c r="F5">
+        <v>-1.05747035064038</v>
       </c>
     </row>
     <row r="6">
@@ -155,10 +228,19 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="C6">
-        <v>-40.726</v>
+        <v>-39.398</v>
+      </c>
+      <c r="D6">
+        <v>144.5</v>
+      </c>
+      <c r="E6">
+        <v>2.52200076913181</v>
+      </c>
+      <c r="F6">
+        <v>-0.713293067897006</v>
       </c>
     </row>
     <row r="7">
@@ -166,10 +248,19 @@
         <v>600</v>
       </c>
       <c r="B7">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="C7">
-        <v>-43.291</v>
+        <v>-42.453</v>
+      </c>
+      <c r="D7">
+        <v>147.5</v>
+      </c>
+      <c r="E7">
+        <v>2.57436064669164</v>
+      </c>
+      <c r="F7">
+        <v>-0.637070260807494</v>
       </c>
     </row>
     <row r="8">
@@ -180,7 +271,16 @@
         <v>0.01</v>
       </c>
       <c r="C8">
-        <v>-40.086</v>
+        <v>-40.215</v>
+      </c>
+      <c r="D8">
+        <v>148.4</v>
+      </c>
+      <c r="E8">
+        <v>2.59006860995959</v>
+      </c>
+      <c r="F8">
+        <v>-0.615204104702031</v>
       </c>
     </row>
     <row r="9">
@@ -188,10 +288,19 @@
         <v>800</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C9">
-        <v>-40.219</v>
+        <v>-40.648</v>
+      </c>
+      <c r="D9">
+        <v>154.5</v>
+      </c>
+      <c r="E9">
+        <v>2.69653369433124</v>
+      </c>
+      <c r="F9">
+        <v>-0.476975532698161</v>
       </c>
     </row>
     <row r="10">
@@ -199,10 +308,19 @@
         <v>900</v>
       </c>
       <c r="B10">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C10">
-        <v>-38.421</v>
+        <v>-40.632</v>
+      </c>
+      <c r="D10">
+        <v>154.8</v>
+      </c>
+      <c r="E10">
+        <v>2.70176968208722</v>
+      </c>
+      <c r="F10">
+        <v>-0.470564281212251</v>
       </c>
     </row>
     <row r="11">
@@ -210,10 +328,19 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="C11">
-        <v>-38.336</v>
+        <v>-35.57</v>
+      </c>
+      <c r="D11">
+        <v>154.5</v>
+      </c>
+      <c r="E11">
+        <v>2.69653369433124</v>
+      </c>
+      <c r="F11">
+        <v>-0.476975532698161</v>
       </c>
     </row>
     <row r="12">
@@ -221,10 +348,19 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="C12">
-        <v>-36.662</v>
+        <v>-36.189</v>
+      </c>
+      <c r="D12">
+        <v>165.2</v>
+      </c>
+      <c r="E12">
+        <v>2.88328392429463</v>
+      </c>
+      <c r="F12">
+        <v>-0.264211396772795</v>
       </c>
     </row>
     <row r="13">
@@ -232,10 +368,19 @@
         <v>3000</v>
       </c>
       <c r="B13">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="C13">
-        <v>-33.525</v>
+        <v>-32.984</v>
+      </c>
+      <c r="D13">
+        <v>167.5</v>
+      </c>
+      <c r="E13">
+        <v>2.9234264970905</v>
+      </c>
+      <c r="F13">
+        <v>-0.22169466264294</v>
       </c>
     </row>
     <row r="14">
@@ -243,10 +388,19 @@
         <v>4000</v>
       </c>
       <c r="B14">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="C14">
-        <v>-32.381</v>
+        <v>-31.734</v>
+      </c>
+      <c r="D14">
+        <v>167.3</v>
+      </c>
+      <c r="E14">
+        <v>2.91993583858651</v>
+      </c>
+      <c r="F14">
+        <v>-0.225359732996845</v>
       </c>
     </row>
     <row r="15">
@@ -254,10 +408,19 @@
         <v>5000</v>
       </c>
       <c r="B15">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="C15">
-        <v>-30.425</v>
+        <v>-29.924</v>
+      </c>
+      <c r="D15">
+        <v>167.4</v>
+      </c>
+      <c r="E15">
+        <v>2.92168116783851</v>
+      </c>
+      <c r="F15">
+        <v>-0.223526482897149</v>
       </c>
     </row>
     <row r="16">
@@ -265,10 +428,19 @@
         <v>6000</v>
       </c>
       <c r="B16">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="C16">
-        <v>-29.104</v>
+        <v>-28.568</v>
+      </c>
+      <c r="D16">
+        <v>166.6</v>
+      </c>
+      <c r="E16">
+        <v>2.90771853382255</v>
+      </c>
+      <c r="F16">
+        <v>-0.2382336041481</v>
       </c>
     </row>
     <row r="17">
@@ -276,10 +448,19 @@
         <v>7000</v>
       </c>
       <c r="B17">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="C17">
-        <v>-28.09</v>
+        <v>-27.98</v>
+      </c>
+      <c r="D17">
+        <v>166.2</v>
+      </c>
+      <c r="E17">
+        <v>2.90073721681458</v>
+      </c>
+      <c r="F17">
+        <v>-0.245623558464826</v>
       </c>
     </row>
     <row r="18">
@@ -287,10 +468,19 @@
         <v>8000</v>
       </c>
       <c r="B18">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="C18">
-        <v>-26.767</v>
+        <v>-26.916</v>
+      </c>
+      <c r="D18">
+        <v>165.7</v>
+      </c>
+      <c r="E18">
+        <v>2.8920105705546</v>
+      </c>
+      <c r="F18">
+        <v>-0.254896803753781</v>
       </c>
     </row>
     <row r="19">
@@ -298,10 +488,19 @@
         <v>9000</v>
       </c>
       <c r="B19">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="C19">
-        <v>-25.64</v>
+        <v>-26.082</v>
+      </c>
+      <c r="D19">
+        <v>164.6</v>
+      </c>
+      <c r="E19">
+        <v>2.87281194878267</v>
+      </c>
+      <c r="F19">
+        <v>-0.275445890853271</v>
       </c>
     </row>
     <row r="20">
@@ -309,10 +508,396 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.059</v>
+        <v>0.053</v>
       </c>
       <c r="C20">
-        <v>-24.516</v>
+        <v>-25.487</v>
+      </c>
+      <c r="D20">
+        <v>164.2</v>
+      </c>
+      <c r="E20">
+        <v>2.86583063177469</v>
+      </c>
+      <c r="F20">
+        <v>-0.282971477224083</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4">
+        <v>-0.213432801279426</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>-0.00826186136351342</v>
+      </c>
+      <c r="E4">
+        <v>-0.00826186136351342</v>
+      </c>
+      <c r="F4">
+        <v>-0.213432801279426</v>
+      </c>
+      <c r="G4">
+        <v>-0.00826186136351342</v>
+      </c>
+      <c r="H4">
+        <v>-0.00826186136351342</v>
+      </c>
+      <c r="I4">
+        <v>7.57575757575758</v>
+      </c>
+      <c r="J4">
+        <v>-0.010944557005075</v>
+      </c>
+      <c r="K4">
+        <v>3.78787878787879</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3777.77777777778</v>
+      </c>
+      <c r="B5">
+        <v>-0.220663073577915</v>
+      </c>
+      <c r="C5">
+        <v>4000</v>
+      </c>
+      <c r="D5">
+        <v>-0.00263086733364823</v>
+      </c>
+      <c r="E5">
+        <v>-0.00263086733364823</v>
+      </c>
+      <c r="F5">
+        <v>-0.222728865663197</v>
+      </c>
+      <c r="G5">
+        <v>-0.00263086733364823</v>
+      </c>
+      <c r="H5">
+        <v>-0.00263086733364823</v>
+      </c>
+      <c r="I5">
+        <v>43.9393939393939</v>
+      </c>
+      <c r="J5">
+        <v>0.010944557005075</v>
+      </c>
+      <c r="K5">
+        <v>96.2121212121212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4555.55555555556</v>
+      </c>
+      <c r="B6">
+        <v>-0.227893345876403</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>0.0084984471498192</v>
+      </c>
+      <c r="E6">
+        <v>0.0084984471498192</v>
+      </c>
+      <c r="F6">
+        <v>-0.232024930046968</v>
+      </c>
+      <c r="G6">
+        <v>0.0084984471498192</v>
+      </c>
+      <c r="H6">
+        <v>0.0084984471498192</v>
+      </c>
+      <c r="I6">
+        <v>92.42424242424239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5333.33333333333</v>
+      </c>
+      <c r="B7">
+        <v>-0.235123618174892</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>0.00308739028263907</v>
+      </c>
+      <c r="E7">
+        <v>0.00308739028263907</v>
+      </c>
+      <c r="F7">
+        <v>-0.241320994430739</v>
+      </c>
+      <c r="G7">
+        <v>0.00308739028263907</v>
+      </c>
+      <c r="H7">
+        <v>0.00308739028263907</v>
+      </c>
+      <c r="I7">
+        <v>56.0606060606061</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6111.11111111111</v>
+      </c>
+      <c r="B8">
+        <v>-0.24235389047338</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>0.00499350034968388</v>
+      </c>
+      <c r="E8">
+        <v>0.00499350034968388</v>
+      </c>
+      <c r="F8">
+        <v>-0.25061705881451</v>
+      </c>
+      <c r="G8">
+        <v>0.00499350034968388</v>
+      </c>
+      <c r="H8">
+        <v>0.00499350034968388</v>
+      </c>
+      <c r="I8">
+        <v>68.1818181818182</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>6888.88888888889</v>
+      </c>
+      <c r="B9">
+        <v>-0.249584162771869</v>
+      </c>
+      <c r="C9">
+        <v>8000</v>
+      </c>
+      <c r="D9">
+        <v>0.00501631944449948</v>
+      </c>
+      <c r="E9">
+        <v>0.00501631944449948</v>
+      </c>
+      <c r="F9">
+        <v>-0.259913123198281</v>
+      </c>
+      <c r="G9">
+        <v>0.00501631944449948</v>
+      </c>
+      <c r="H9">
+        <v>0.00501631944449948</v>
+      </c>
+      <c r="I9">
+        <v>80.3030303030303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>7666.66666666667</v>
+      </c>
+      <c r="B10">
+        <v>-0.256814435070357</v>
+      </c>
+      <c r="C10">
+        <v>9000</v>
+      </c>
+      <c r="D10">
+        <v>-0.00623670327121972</v>
+      </c>
+      <c r="E10">
+        <v>-0.00623670327121972</v>
+      </c>
+      <c r="F10">
+        <v>-0.269209187582051</v>
+      </c>
+      <c r="G10">
+        <v>-0.00623670327121972</v>
+      </c>
+      <c r="H10">
+        <v>-0.00623670327121972</v>
+      </c>
+      <c r="I10">
+        <v>19.6969696969697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>8444.444444444451</v>
+      </c>
+      <c r="B11">
+        <v>-0.264044707368845</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11">
+        <v>-0.00446622525826029</v>
+      </c>
+      <c r="E11">
+        <v>-0.00446622525826029</v>
+      </c>
+      <c r="F11">
+        <v>-0.278505251965822</v>
+      </c>
+      <c r="G11">
+        <v>-0.00446622525826029</v>
+      </c>
+      <c r="H11">
+        <v>-0.00446622525826029</v>
+      </c>
+      <c r="I11">
+        <v>31.8181818181818</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>9222.222222222221</v>
+      </c>
+      <c r="B12">
+        <v>-0.271274979667334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>-0.278505251965822</v>
       </c>
     </row>
   </sheetData>
